--- a/TestMerge.xlsx
+++ b/TestMerge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfurs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfurs\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7976E-474E-4967-A494-6C4B682DDF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCF8AE-9ED4-40D2-BED8-A08CCDB0210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Connect </t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanted </t>
+  </si>
+  <si>
+    <t>to make</t>
+  </si>
+  <si>
+    <t>change</t>
   </si>
 </sst>
 </file>
@@ -361,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:I10"/>
+  <dimension ref="E4:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -380,7 +389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>1</v>
       </c>
@@ -392,7 +401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>3</v>
       </c>
@@ -404,7 +413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>5</v>
       </c>
@@ -416,7 +425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
@@ -428,7 +437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>9</v>
       </c>
@@ -438,6 +447,21 @@
       <c r="I10">
         <f t="shared" si="0"/>
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestMerge.xlsx
+++ b/TestMerge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfurs\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCF8AE-9ED4-40D2-BED8-A08CCDB0210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E56B5E1-AF78-47E6-8903-2D7A8310F6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:L15"/>
+  <dimension ref="E4:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,6 +464,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestMerge.xlsx
+++ b/TestMerge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfurs\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E56B5E1-AF78-47E6-8903-2D7A8310F6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC58EA0-7C5A-40C8-8CC0-35E4178CC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,15 +370,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:L17"/>
+  <dimension ref="E3:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -389,7 +394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>1</v>
       </c>
@@ -401,7 +406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>3</v>
       </c>
@@ -413,7 +418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>5</v>
       </c>
@@ -425,7 +430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
@@ -437,7 +442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>9</v>
       </c>
@@ -449,24 +454,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:17" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>312312</v>
+      </c>
       <c r="L15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>12</v>
+      </c>
       <c r="J17">
         <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
